--- a/biology/Zoologie/Aphelenchoides/Aphelenchoides.xlsx
+++ b/biology/Zoologie/Aphelenchoides/Aphelenchoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Aphelenchoides est un genre de nématodes (les nématodes sont un embranchement de vers non segmentés, recouverts d'une épaisse cuticule et menant une vie libre ou parasitaire), à répartition cosmopolite, qui comprend environ 200 espèces. Les nématodes de ce genre vivent dans le sol, les résidus de plantes en décomposition, la mousse et à la surface des rochers et des arbres. Ils sont pour la plupart mycophages, mais certaines espèces sont des parasites internes ou externes des plantes[2].
-L'espèce-type est Aphelenchoides kuehnei Fischer, 1894[2]. 
+Aphelenchoides est un genre de nématodes (les nématodes sont un embranchement de vers non segmentés, recouverts d'une épaisse cuticule et menant une vie libre ou parasitaire), à répartition cosmopolite, qui comprend environ 200 espèces. Les nématodes de ce genre vivent dans le sol, les résidus de plantes en décomposition, la mousse et à la surface des rochers et des arbres. Ils sont pour la plupart mycophages, mais certaines espèces sont des parasites internes ou externes des plantes.
+L'espèce-type est Aphelenchoides kuehnei Fischer, 1894. 
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (4 février 2020)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (4 février 2020) :
 Aphelenchoides besseyi Christie, 1942
 Aphelenchoides bicaudatus
 Aphelenchoides blastophthorus Franklin, 1952
